--- a/消防/05_日报/517工作汇报.xlsx
+++ b/消防/05_日报/517工作汇报.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\物联网\每日汇报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\物联网\githup\消防\05_日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="9765" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017年05月17日支队测试情况汇报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>待跟踪问题：
 1.三屏CI构建。---5月19号前完成，张元剑
 2.支队测试计划。---5月18号前完成，张元剑</t>
@@ -74,6 +70,10 @@
 3.功能完成了登录和单位列表的用例执行。
 4.CI完成usercenter的配置。
 5.进行了阶段性工作汇报。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05月17日支队测试情况汇报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,8 +468,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -481,7 +481,7 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
@@ -548,7 +548,7 @@
     </row>
     <row r="10" spans="2:6" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -557,7 +557,7 @@
     </row>
     <row r="11" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
